--- a/yield_prediction/results/graph_descriptors/WLlinear_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.081</v>
+        <v>16.214</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.765</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.65</v>
+        <v>12.952</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.681</v>
+        <v>4.024</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.929410430743442</v>
+        <v>7.102120087531056</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.02706837272949</v>
+        <v>9.447898512978965</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.36501784219431</v>
+        <v>13.72781202959804</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-4.018572303564333</v>
+        <v>-1.558902728712702</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.78886037200243</v>
+        <v>13.95775298445281</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.86214855151298</v>
+        <v>16.54602047194431</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1.059053547587105</v>
+        <v>1.981204284102873</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.50467687098972</v>
+        <v>21.49239040854999</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.94166496980776</v>
+        <v>25.38466428158206</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.16195106205627</v>
+        <v>23.47719463114773</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.36957848855168</v>
+        <v>27.58487702710134</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33.30059304991629</v>
+        <v>32.43720882434522</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.250219509151329</v>
+        <v>4.878300107049142</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16.02886095082468</v>
+        <v>14.23615743615008</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.92074174955656</v>
+        <v>19.65353961996245</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.63249333909123</v>
+        <v>10.20638190495515</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.87711710788335</v>
+        <v>25.53690666799796</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.59436024938864</v>
+        <v>40.07113671508777</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.4102103133974104</v>
+        <v>-0.8511109284342773</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.82004866050863</v>
+        <v>15.03032398627205</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.54781038805832</v>
+        <v>31.91704452538794</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.253146708180516</v>
+        <v>1.699848516919591</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.54716526694514</v>
+        <v>27.08610021537223</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>49.87544033925616</v>
+        <v>55.60433587370427</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>35.67323119677724</v>
+        <v>32.66719885423124</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>51.67258509124864</v>
+        <v>52.88497389854855</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>62.47168511202895</v>
+        <v>73.11524610630855</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>8.356758002857998</v>
+        <v>6.007934425633785</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>42.95624823081052</v>
+        <v>45.51924756237845</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>53.25254252915497</v>
+        <v>62.66083759072186</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>15.41444831327581</v>
+        <v>13.99817752312588</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.16639000348522</v>
+        <v>34.08066386848204</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.36413364540895</v>
+        <v>43.50542953038122</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.869837203539767</v>
+        <v>-0.5944781203491267</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>27.10067260493678</v>
+        <v>25.66911500552236</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35.59571479177355</v>
+        <v>37.95121334433475</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6.338307729488683</v>
+        <v>3.024781087218862</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>47.2447588545176</v>
+        <v>42.13257037035795</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>62.71366719670035</v>
+        <v>58.82975395199291</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>60.84482623821236</v>
+        <v>59.41545107651255</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>72.38186947784578</v>
+        <v>75.39584192427873</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>81.03669169184698</v>
+        <v>83.44185208629783</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>15.25558681268472</v>
+        <v>15.5284335985868</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>60.40472827638784</v>
+        <v>62.17834916725802</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>71.2181601133029</v>
+        <v>68.80406072407092</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.722511769532488</v>
+        <v>5.89940847470454</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.220070438177</v>
+        <v>32.01239551191757</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.8449175402498</v>
+        <v>39.59924356251109</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.741437673043297</v>
+        <v>1.965112531432297</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38.04431566579268</v>
+        <v>42.43874459152146</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>43.20984766736863</v>
+        <v>44.06760247295374</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.397373268314784</v>
+        <v>6.551939108071686</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>61.51395146855783</v>
+        <v>66.05503655723689</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>65.6206619192898</v>
+        <v>68.84735200112245</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>59.43905239584527</v>
+        <v>61.19953361857106</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>67.9068109349038</v>
+        <v>75.82225136424896</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>67.65784299840286</v>
+        <v>63.92536399733471</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6.549004345139558</v>
+        <v>4.950445446334747</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>41.47752552087134</v>
+        <v>46.87033102762037</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>53.24650999876646</v>
+        <v>53.03038913257294</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>9.442946031767285</v>
+        <v>7.893485362791619</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>35.07444993644786</v>
+        <v>34.67232885321739</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>42.69441660116231</v>
+        <v>40.05970726262348</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-0.6714197619393829</v>
+        <v>-1.254952587724787</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.76240730222747</v>
+        <v>24.22107487098134</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>38.16430795672697</v>
+        <v>35.99720765768871</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3.822747311526385</v>
+        <v>1.442893368391502</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>48.70880051240559</v>
+        <v>44.61646317660707</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>61.95860674171205</v>
+        <v>60.93858167870635</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>50.14224262255657</v>
+        <v>51.45719075919108</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>65.946562700632</v>
+        <v>68.11914758037898</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>73.6379640702016</v>
+        <v>74.43558802702606</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>8.365916514075249</v>
+        <v>5.847247060330737</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>57.2818398111078</v>
+        <v>57.95254456689741</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>62.77364411819121</v>
+        <v>62.32378130534138</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>8.796627693702874</v>
+        <v>9.859191602308142</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>37.3462558961571</v>
+        <v>37.05414226060736</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>47.41401771972086</v>
+        <v>48.50764520274011</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-1.732609675544651</v>
+        <v>-0.3896592290461172</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.1022607141039</v>
+        <v>34.2924186496918</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.59772862225565</v>
+        <v>44.08080980342747</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3.721480306299888</v>
+        <v>4.505954985623127</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>59.33849700151637</v>
+        <v>59.71326180653615</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>75.23112051022432</v>
+        <v>80.36561380608237</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>68.66228078364421</v>
+        <v>69.54606698215534</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>82.87089238278827</v>
+        <v>90.01083628807586</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>90.85437180692585</v>
+        <v>93.30820870713697</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.407315624972945</v>
+        <v>6.729848598686964</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>70.81449877932877</v>
+        <v>70.63473161998061</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>76.25479682652011</v>
+        <v>75.46556143598494</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.29876459459277</v>
+        <v>14.12009746297823</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.17663271179001</v>
+        <v>33.91712510941836</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.09008994033316</v>
+        <v>37.12713760063685</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4.072264351819442</v>
+        <v>0.9225700782726847</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.79885268954719</v>
+        <v>36.92408368624864</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.89090755686109</v>
+        <v>34.61152957692845</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.31779479376145</v>
+        <v>5.653588762290546</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>59.19428293243951</v>
+        <v>62.91429468445858</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>57.80865399767976</v>
+        <v>58.41729710998651</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>53.94680538281492</v>
+        <v>50.58258447759482</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>61.96516059835528</v>
+        <v>60.48127044067123</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>59.85015510889443</v>
+        <v>57.16520133144118</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10.30406091657766</v>
+        <v>10.72158804596907</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.63580789318289</v>
+        <v>37.7440359144228</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>43.26959737980497</v>
+        <v>41.15245522593385</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>19.35628282320549</v>
+        <v>18.42126760693162</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.80712429473481</v>
+        <v>44.84822529578214</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.79699198134162</v>
+        <v>45.04558991469035</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4.605881366129964</v>
+        <v>3.159066669107307</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>33.76835264794134</v>
+        <v>35.02417011691868</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>39.47698078947189</v>
+        <v>38.43112364011802</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>11.71623828178929</v>
+        <v>5.046394886553319</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>58.84384808238621</v>
+        <v>58.43934053437984</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>65.11519873062809</v>
+        <v>65.44863305690058</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>58.5580559968604</v>
+        <v>58.57047632964721</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>70.49380301597742</v>
+        <v>70.00374557999336</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>73.93278718173761</v>
+        <v>74.23679501232846</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>18.24136030952766</v>
+        <v>18.65964415364883</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>59.53918312748004</v>
+        <v>61.62579842489428</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>62.67008061096923</v>
+        <v>61.81815246592669</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>16.5486930737264</v>
+        <v>18.50844470643708</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>44.62250603716875</v>
+        <v>44.59641148744551</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.6136708111146</v>
+        <v>50.3495759813602</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2.673240672126393</v>
+        <v>1.798942047750799</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.35625354403211</v>
+        <v>41.02391133457242</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>41.79578384657354</v>
+        <v>43.19676142928238</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>9.245776204306182</v>
+        <v>4.448708473793918</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>67.10549667902816</v>
+        <v>69.02017312616333</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>75.25941665557295</v>
+        <v>78.6749570681045</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>76.11937984859588</v>
+        <v>76.63086804810553</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>85.69226954953405</v>
+        <v>84.14011893130066</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>90.93120781660733</v>
+        <v>91.59037382085131</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>15.94130611799468</v>
+        <v>17.00993378768837</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>73.89520990307705</v>
+        <v>72.512475231721</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>77.31697677993182</v>
+        <v>75.03390262377809</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>8.216609411681862</v>
+        <v>10.25068519921866</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>12.5137755657701</v>
+        <v>11.03512096926511</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>17.3039882324252</v>
+        <v>16.25071471908542</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-3.283977791745308</v>
+        <v>-1.173279417146844</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>12.05714661890125</v>
+        <v>13.32480434200957</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>14.0785218113027</v>
+        <v>13.66746069494457</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2.191833041260235</v>
+        <v>4.191574617916324</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.25495938212774</v>
+        <v>23.61645632846374</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.02018815129571</v>
+        <v>27.28209625084637</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>26.22488974738783</v>
+        <v>23.15950459347594</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.49588360054146</v>
+        <v>26.1069503649832</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36.00609332152726</v>
+        <v>34.06215702633816</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>27.7553290941945</v>
+        <v>63.00858613604635</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>37.9948612443067</v>
+        <v>65.24885028206333</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>46.20883823035406</v>
+        <v>60.52393961128676</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.09216711087286</v>
+        <v>9.394258633766409</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.11279840924009</v>
+        <v>25.25784817456329</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.43713218573358</v>
+        <v>40.52578267490178</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1.420410565075134</v>
+        <v>-1.060660301715732</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>12.5871807010671</v>
+        <v>11.41914351973405</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.63088586900933</v>
+        <v>29.25488293287406</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.72594560099926</v>
+        <v>30.99562547630788</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>45.98162528733572</v>
+        <v>58.0280814217266</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.69600984594725</v>
+        <v>30.26939315146783</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>45.60377338281774</v>
+        <v>47.96543983634933</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>56.35022522731537</v>
+        <v>68.92099351954207</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>14.94464840639231</v>
+        <v>6.550782896611253</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>45.8053931558895</v>
+        <v>44.1619417282883</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>51.7386245579296</v>
+        <v>53.59948644898565</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>19.49263760589749</v>
+        <v>20.39726542583703</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.18699837304784</v>
+        <v>32.59462217025445</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>42.52616213850347</v>
+        <v>44.04326240595365</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3.62982160878208</v>
+        <v>1.913519527761004</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>19.45821993067575</v>
+        <v>17.59422854111268</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30.42211388863664</v>
+        <v>30.33127147098903</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>9.080680117682665</v>
+        <v>9.352980976052642</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>42.74952224584466</v>
+        <v>42.88186020111348</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>58.67989482390521</v>
+        <v>63.88327780228843</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>50.03825615681344</v>
+        <v>44.06746619040347</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>61.12202707915243</v>
+        <v>61.79302925857495</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>71.11486150199124</v>
+        <v>80.2140539149791</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>24.24803780062843</v>
+        <v>27.77878276346583</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>59.97559545756375</v>
+        <v>60.13963847851622</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>68.36955493771893</v>
+        <v>68.38590631649318</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>10.11350175899326</v>
+        <v>7.386113719175704</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.23616810864403</v>
+        <v>24.29061714528778</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.58751072179981</v>
+        <v>28.97051010889912</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2.587886944979736</v>
+        <v>2.212284906887504</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>33.53931026301482</v>
+        <v>34.89434219769686</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>34.76573153231053</v>
+        <v>37.68853964541299</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>11.33769945159398</v>
+        <v>8.74155811323832</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>59.12955312429919</v>
+        <v>64.63094155465672</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>57.35503510383006</v>
+        <v>62.23727073325403</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>48.4530787970313</v>
+        <v>52.66828157687435</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>53.6080590080946</v>
+        <v>64.62275515601569</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>55.65308068739296</v>
+        <v>66.18450891563316</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>16.71253056219055</v>
+        <v>12.11765360937041</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>32.67793818329125</v>
+        <v>8.238221161026274</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>39.86404020117496</v>
+        <v>10.37442792401763</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21.20197429392567</v>
+        <v>20.44209139104917</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>47.19715651990802</v>
+        <v>43.39081992483518</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>48.05311636344387</v>
+        <v>44.28761525676762</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>7.831184043243493</v>
+        <v>3.259435916948721</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>35.63566934441459</v>
+        <v>33.24833457610674</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>41.96272110438902</v>
+        <v>42.2084305942579</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>60.42218789815976</v>
+        <v>59.75015773871175</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>66.641370922931</v>
+        <v>67.53532356932377</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>61.08604044827462</v>
+        <v>64.3903446178827</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>74.55208728588153</v>
+        <v>74.25224541403929</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>79.55551530732365</v>
+        <v>82.35812681105563</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.53460630867984</v>
+        <v>32.12993711337363</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>69.37159172539039</v>
+        <v>67.25655943461899</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>69.44347287330916</v>
+        <v>69.61032402428449</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>19.69963667477272</v>
+        <v>22.11939572072752</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>43.76716552020679</v>
+        <v>43.55900766927433</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>47.33639166262939</v>
+        <v>48.10836862481359</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>3.653869596450541</v>
+        <v>0.7670495059404878</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.13123146735608</v>
+        <v>31.65551413170989</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>38.85720293623779</v>
+        <v>40.03898845671412</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>11.22406357072222</v>
+        <v>7.668484466814938</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>62.68054871658471</v>
+        <v>62.22144117639773</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>71.79630615527569</v>
+        <v>73.97583064481715</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>74.07188039625939</v>
+        <v>75.51967578548367</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>82.40170528937938</v>
+        <v>82.01414024041478</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>87.68689613592633</v>
+        <v>85.71654395248889</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.61095739773804</v>
+        <v>32.41785440109545</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>73.91868653458008</v>
+        <v>69.95328595521805</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>78.04549155023302</v>
+        <v>74.43191931452017</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-0.1986452559239069</v>
+        <v>3.242605609240911</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.52897546439906</v>
+        <v>17.36090164073865</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.06134391095484</v>
+        <v>30.60689797694961</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>3.931932920322854</v>
+        <v>0.5939785324425344</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>36.98664724102143</v>
+        <v>37.89448107409569</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>38.13865452336768</v>
+        <v>37.70259972399556</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>9.451166506231411</v>
+        <v>6.935849395936447</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>62.06657274963354</v>
+        <v>68.66115150749502</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>65.06352857737781</v>
+        <v>66.95903066331705</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>53.82240801682874</v>
+        <v>55.58644844526388</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>60.14078848117925</v>
+        <v>65.29620881642879</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>62.95516399493345</v>
+        <v>67.85282458293031</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>5.83094408996052</v>
+        <v>3.544274387703876</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>19.80490060768925</v>
+        <v>6.840361173789368</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.01579656520904</v>
+        <v>7.439514681387369</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.68901098812498</v>
+        <v>14.63468541993449</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>46.96238377329072</v>
+        <v>43.47897180700406</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>49.78770666731105</v>
+        <v>46.66550495474426</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>3.257632786710989</v>
+        <v>3.59929928059567</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>39.28129636308783</v>
+        <v>38.18687145405499</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>44.29375677832549</v>
+        <v>44.3717012211557</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>8.235927472990376</v>
+        <v>4.648610230410124</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>66.84909755507269</v>
+        <v>66.53410011817246</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>72.62566809263568</v>
+        <v>70.12688529254575</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>56.30084701255156</v>
+        <v>53.60783165661987</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>73.94199098634796</v>
+        <v>71.29508166332704</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>79.67747358703761</v>
+        <v>80.40687692839026</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>18.01542965291569</v>
+        <v>17.96125854962005</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>69.40437517106689</v>
+        <v>69.62192433138058</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>70.28099108457786</v>
+        <v>72.85941988593865</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>14.33852823509392</v>
+        <v>18.39721997962256</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-0.8279454363699585</v>
+        <v>1.254303414096391</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>37.85705945746082</v>
+        <v>38.352080532595</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>41.02176885418883</v>
+        <v>42.23783507053764</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>6.98776108593233</v>
+        <v>5.403634057846929</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>68.50727458974195</v>
+        <v>70.78917109468708</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>76.82922260024264</v>
+        <v>77.01534159727638</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>73.48697064772017</v>
+        <v>71.01317122841226</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>85.95101568878266</v>
+        <v>87.29371057498966</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>90.05610762566735</v>
+        <v>92.58596664148138</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>14.36045745763942</v>
+        <v>16.76172212441595</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>74.89410044570909</v>
+        <v>74.92146927445253</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>76.46761338729652</v>
+        <v>77.76629040588179</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>5.460869060524519</v>
+        <v>4.224919374812714</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>2.849398206906805</v>
+        <v>5.048872852522187</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>8.913373739077649</v>
+        <v>9.528752678106162</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-2.821713247899194</v>
+        <v>-2.25428309398891</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>8.279546711374156</v>
+        <v>11.31947326844448</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>8.457051674245042</v>
+        <v>10.66541391602294</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.4664631725206334</v>
+        <v>0.4826853433531255</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.13227978441067</v>
+        <v>18.96560970949434</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>21.27496691236785</v>
+        <v>20.54150660164081</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.5984655212714</v>
+        <v>23.41694615889494</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.78289404741217</v>
+        <v>29.84395585742058</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.47987607740007</v>
+        <v>29.58160917969381</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>1.032437713385463</v>
+        <v>2.030569748264863</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>7.806739652385344</v>
+        <v>8.015043894147048</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>11.69698834180502</v>
+        <v>9.971390018871109</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>10.25187541309541</v>
+        <v>7.85249409457073</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>23.80009654913897</v>
+        <v>23.68135263717623</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>34.9947124700368</v>
+        <v>33.26211470989485</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1.924569313096004</v>
+        <v>0.8896010623964905</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>17.72731127020687</v>
+        <v>18.17649277688713</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.22387150852832</v>
+        <v>29.78048230581259</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>7.664171437647589</v>
+        <v>4.276412793527765</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.56359404353815</v>
+        <v>32.24633269510755</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>52.02997719266433</v>
+        <v>50.66458930867733</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>36.12565973835108</v>
+        <v>35.20969558554967</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>50.37449903843737</v>
+        <v>51.0344039358129</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>57.35443729351733</v>
+        <v>61.33200521336862</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>8.76753167386051</v>
+        <v>6.500753772951661</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>41.1417578853858</v>
+        <v>42.4312616970845</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>48.90176784990028</v>
+        <v>52.26431510056161</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>9.834705421427351</v>
+        <v>9.149494071502851</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.98963271167916</v>
+        <v>28.89006453562812</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>39.3846934043635</v>
+        <v>39.07479712585772</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>1.895222605018716</v>
+        <v>0.4125891786599638</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.47651982059168</v>
+        <v>28.20292238454839</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>35.62529258467152</v>
+        <v>36.6197889142357</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>7.093140847072501</v>
+        <v>3.855144454869006</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>49.29894049476162</v>
+        <v>48.67677986047838</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>62.76512231907969</v>
+        <v>61.10891784511303</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>60.4501925734128</v>
+        <v>61.59695709735769</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>73.35333598279107</v>
+        <v>73.40439717260409</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>78.0851985609398</v>
+        <v>77.4696423811347</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>12.95598316181786</v>
+        <v>10.78048235265647</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>60.90006942488312</v>
+        <v>60.34167629185009</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>69.10546849697221</v>
+        <v>71.6503568466718</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>2.193179282932277</v>
+        <v>2.547698799394414</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>5.396662787286569</v>
+        <v>6.409820057096468</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>8.76487400494835</v>
+        <v>8.624653780577106</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-3.602221098928133</v>
+        <v>-2.019767123274892</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>7.430678850238525</v>
+        <v>10.69125801099636</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>10.09579645394268</v>
+        <v>9.934077512158918</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-5.491706067827167</v>
+        <v>0.8599454461234721</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>19.31526183562968</v>
+        <v>15.73649866390892</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>18.91983415220548</v>
+        <v>14.51717039011404</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.89781502180224</v>
+        <v>14.66621353632279</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>18.89017813836918</v>
+        <v>16.69638291798268</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>25.16728287317141</v>
+        <v>16.61060451940739</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>1.325790786117544</v>
+        <v>4.555519485765508</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>7.878384132321557</v>
+        <v>12.294482221568</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>10.13466954382373</v>
+        <v>11.76903851980684</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>1.768160925548564</v>
+        <v>0.8081021926263858</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>7.70620150010148</v>
+        <v>6.365791110349001</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>15.50876819289921</v>
+        <v>17.9867703119265</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-2.715175692634908</v>
+        <v>-2.191225350122227</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0.489222739707575</v>
+        <v>0.6780962717991983</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.89365827851809</v>
+        <v>12.02382194872393</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-6.155548559276269</v>
+        <v>0.2617406450796764</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>12.33287605633691</v>
+        <v>9.710623116183108</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>27.14644239954403</v>
+        <v>27.90588048875958</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>12.48977247885401</v>
+        <v>14.99089351251776</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>27.07135332719537</v>
+        <v>25.36419917027709</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>39.99951466507779</v>
+        <v>42.15187990443781</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-1.504807409803476</v>
+        <v>0.4367494199465618</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>17.36287384442158</v>
+        <v>13.78773070309963</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>19.89494007156773</v>
+        <v>14.02624061850197</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>4.302576331767774</v>
+        <v>1.784264266287177</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>10.22987891605283</v>
+        <v>5.723918028680323</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>24.35148363771672</v>
+        <v>26.93999285254721</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-2.407992010808147</v>
+        <v>-3.90259323212155</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>6.553398716960405</v>
+        <v>3.110839483973603</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>22.33676099881201</v>
+        <v>22.73598464443548</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-2.341312592028537</v>
+        <v>-0.001806822600254776</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>23.22601180049377</v>
+        <v>14.56454343532447</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>44.56943778034984</v>
+        <v>55.63800151965357</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>31.81410131833068</v>
+        <v>20.3837301816764</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>44.38075681252009</v>
+        <v>47.29548021116228</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>62.01050961690697</v>
+        <v>67.05104551802565</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>0.1546885174112376</v>
+        <v>-3.827560320119989</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>27.61700515436447</v>
+        <v>11.9579161094069</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>37.48494199633256</v>
+        <v>22.97722177979309</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>5.436460897488285</v>
+        <v>9.26586835626993</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>24.21638026871111</v>
+        <v>23.62362596037638</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>37.96763890350684</v>
+        <v>37.4558428147518</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>3.915147809686054</v>
+        <v>4.046388333168203</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>44.23568531192218</v>
+        <v>46.89911476136067</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>46.38148061769087</v>
+        <v>47.78229027916099</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>8.800194108036164</v>
+        <v>4.36860797282754</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>65.85211299780281</v>
+        <v>70.24007263501016</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>70.81370548711521</v>
+        <v>71.07223032009853</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>65.55440508952607</v>
+        <v>62.443451839712</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>73.31614236379109</v>
+        <v>69.55756942506643</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>71.96934458725583</v>
+        <v>64.67737300059673</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>12.44730220807517</v>
+        <v>23.2935401003713</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>38.63586639820002</v>
+        <v>41.05269973146812</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>60.96024906114484</v>
+        <v>66.89159821063294</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>11.72585048621194</v>
+        <v>10.07385551260179</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.24420021573968</v>
+        <v>34.04715139147422</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>39.15581596378161</v>
+        <v>35.17671373430885</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-1.864743296650236</v>
+        <v>-0.5193943712551388</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.34785559938985</v>
+        <v>30.40804604963489</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>33.12356382788498</v>
+        <v>33.19639841259661</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>3.864802737029056</v>
+        <v>2.280522863652394</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>52.48218215185227</v>
+        <v>53.1779146131523</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>60.62175376210158</v>
+        <v>56.37412864647185</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>49.58564528122874</v>
+        <v>49.02685329138475</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>60.72938478313855</v>
+        <v>60.14782590577021</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>64.69264415794891</v>
+        <v>64.49978060128856</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>14.08857785977841</v>
+        <v>17.99021957220689</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>55.74797415193433</v>
+        <v>56.79865455518224</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>60.28305912712622</v>
+        <v>59.00204813280845</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>10.37112780743503</v>
+        <v>12.23771984309852</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>36.12609458830779</v>
+        <v>35.40256301877002</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>43.1145215578816</v>
+        <v>43.29210831566981</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-0.3483294216464934</v>
+        <v>1.867518329623394</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>38.69801497483457</v>
+        <v>38.98537376509618</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>39.92491704831163</v>
+        <v>42.33716277481092</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>5.570835538571533</v>
+        <v>5.679207032467044</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>64.35275347927103</v>
+        <v>65.42606941100156</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>73.98018600257177</v>
+        <v>75.72398561153354</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>71.74389551371249</v>
+        <v>71.36227094094406</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>81.97737145557767</v>
+        <v>81.07252116956067</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>84.23158900211993</v>
+        <v>83.89118697121394</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>13.97673513782296</v>
+        <v>17.64000573333349</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>71.24423038025306</v>
+        <v>70.61450592478039</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>77.53198630550705</v>
+        <v>78.07742255402724</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>5.715884505113074</v>
+        <v>5.06160641747957</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>5.029850540102174</v>
+        <v>8.791611533371297</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>11.67383728339366</v>
+        <v>12.3546854964306</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-2.341296065088329</v>
+        <v>-1.300610199239852</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>2.838677500303852</v>
+        <v>8.48340569999765</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>7.676874290367259</v>
+        <v>9.661236547249551</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>0.06131552333842905</v>
+        <v>1.620992412145878</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>14.74696529179749</v>
+        <v>12.8454740260237</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.46523917180689</v>
+        <v>18.03419212774696</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.65824358104643</v>
+        <v>17.25809756829016</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>20.56567997019492</v>
+        <v>21.28404194729169</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.87656048697577</v>
+        <v>24.57839467788014</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>3.079748250144242</v>
+        <v>4.205581176180182</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>8.130407648609136</v>
+        <v>13.25045171318186</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>11.44386468538887</v>
+        <v>11.24079350197134</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>6.392015742964814</v>
+        <v>4.055842477096608</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>12.72765720346466</v>
+        <v>14.54975244617766</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.40804835206579</v>
+        <v>26.39392736407134</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-0.5980747686001031</v>
+        <v>-1.200451771860585</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>4.806801416472489</v>
+        <v>7.749300986865308</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>24.20423914139356</v>
+        <v>23.26729021531237</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>1.21276025334425</v>
+        <v>0.5347769238195141</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>14.20053560719073</v>
+        <v>12.82464072809513</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>38.59252846981137</v>
+        <v>41.05488308998581</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>17.30903202302284</v>
+        <v>16.46167988330239</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.56511846015278</v>
+        <v>28.97458109334885</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>41.18405024220391</v>
+        <v>43.09822439720257</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.6090060016700676</v>
+        <v>2.291522375372843</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>20.4222672279984</v>
+        <v>24.4362100606716</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>33.60400958205632</v>
+        <v>36.50817314193304</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>11.94639069858772</v>
+        <v>12.07025069046787</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>20.949502324642</v>
+        <v>22.28009159274026</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>37.73362338276441</v>
+        <v>36.82267715437537</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>2.39229736977618</v>
+        <v>0.8918046667507156</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>15.64175091062368</v>
+        <v>15.69938916579858</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.1092228793675</v>
+        <v>30.07063648066662</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>6.562345906564939</v>
+        <v>6.540646293032523</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.95538204755919</v>
+        <v>28.71456688801847</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>55.0448912071323</v>
+        <v>53.55334589039371</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>37.38019321392871</v>
+        <v>32.8531316297159</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>44.22211073893325</v>
+        <v>42.72266125049089</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>65.72436364647896</v>
+        <v>67.97133391939391</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>8.89276583618944</v>
+        <v>16.52992339030492</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>38.22287674053553</v>
+        <v>38.25878196222045</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>51.77855155075904</v>
+        <v>54.13553148129999</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-4.364834875986965</v>
+        <v>3.572682815330765</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>1.550132810556278</v>
+        <v>-0.6471730088403227</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>4.793214246240193</v>
+        <v>5.220031750535959</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-9.561474089589876</v>
+        <v>-4.050681439002275</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>0.9952440051095515</v>
+        <v>2.546193926865186</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>2.780539282757488</v>
+        <v>3.61598886007631</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-9.2063959677809</v>
+        <v>4.545411668199478</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>21.70845505142567</v>
+        <v>11.37870129618047</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>19.5711463278089</v>
+        <v>11.72301527497193</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>16.97486512271556</v>
+        <v>3.482947539927331</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>19.95582887975586</v>
+        <v>3.881180300458141</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.20043802652952</v>
+        <v>15.84605038816827</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-8.14595424050858</v>
+        <v>-2.028143914997813</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>0.487935286995743</v>
+        <v>-4.840757941069082</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>1.081579969181725</v>
+        <v>2.043583738567104</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>14.17684846169876</v>
+        <v>17.46493988003116</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>37.13922596997377</v>
+        <v>36.25566830080759</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.06731887971396</v>
+        <v>39.22010708093083</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>4.359965584378653</v>
+        <v>4.941537497113433</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.50542680832793</v>
+        <v>27.38886748306903</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.82695326053698</v>
+        <v>33.49945479242203</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>8.803759163833991</v>
+        <v>10.85898305253181</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>50.76469770733384</v>
+        <v>50.64306875110879</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>55.31655183844197</v>
+        <v>59.76102257310807</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>47.67201918789442</v>
+        <v>48.45996117716602</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>60.1036717156338</v>
+        <v>54.75055402899676</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>62.84993415359978</v>
+        <v>61.77134711930271</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>14.97873995511214</v>
+        <v>15.98883194769967</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>52.65689407251756</v>
+        <v>52.37801005297823</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>53.11754908164243</v>
+        <v>53.31385757639349</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>15.5440108672661</v>
+        <v>18.38538191911189</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>39.40309955399484</v>
+        <v>38.40861198309854</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>43.81214924574316</v>
+        <v>47.20645010259019</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>2.803889045796083</v>
+        <v>2.603798630294435</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>31.89109613530761</v>
+        <v>33.83395951332445</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>35.77435733130698</v>
+        <v>38.52955167949491</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.425678621817692</v>
+        <v>8.70359601585162</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>58.66714665171999</v>
+        <v>61.69021627795787</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>66.75607725358481</v>
+        <v>70.94308981032077</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>67.41172203727038</v>
+        <v>66.61392717173919</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>76.60546799491732</v>
+        <v>77.63754217974527</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>81.96297376683285</v>
+        <v>82.72825823612328</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>14.8841073194271</v>
+        <v>14.47583955620664</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>67.58827614944832</v>
+        <v>65.44555809254797</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>68.29253951037084</v>
+        <v>68.94452015858349</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>11.74884361493663</v>
+        <v>11.27344920678614</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>12.22803666479081</v>
+        <v>13.91099144517104</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>17.0061006019124</v>
+        <v>14.95054358751506</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1.558657017450869</v>
+        <v>1.51763098899815</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>9.934863489385799</v>
+        <v>14.16542657080362</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>13.49999255334425</v>
+        <v>13.24214365143634</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>4.738617049581173</v>
+        <v>9.120569630161484</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>23.96766541353927</v>
+        <v>25.3963399084339</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.08937745909977</v>
+        <v>23.50189932340831</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>24.4921882867561</v>
+        <v>23.46545035461429</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.17327061464005</v>
+        <v>28.75541957119318</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.67380629314691</v>
+        <v>28.91655236953123</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>10.42275621935405</v>
+        <v>11.39894755467734</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>13.64894016358293</v>
+        <v>17.1315714320662</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>18.61718040471734</v>
+        <v>15.49993987168575</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>5.028061086848965</v>
+        <v>3.578796795003342</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>9.976157368147032</v>
+        <v>9.874276354994185</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>18.56076621087766</v>
+        <v>16.45179361124831</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-3.567590519522536</v>
+        <v>-4.139796553978215</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>0.4816987160246455</v>
+        <v>1.338240385555434</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>13.64454813624507</v>
+        <v>13.3296617424327</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-3.351893266578319</v>
+        <v>-2.675169779957557</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>11.22280019840429</v>
+        <v>9.53158173854677</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>25.37750389869259</v>
+        <v>27.66181553967216</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>15.37186397413226</v>
+        <v>13.45242053954648</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>20.86933435403524</v>
+        <v>20.65126577072757</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.72272661016953</v>
+        <v>30.52953430288814</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-1.417896450237777</v>
+        <v>-1.769610374516972</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>12.14502707750905</v>
+        <v>13.98399313550204</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>19.34731199935529</v>
+        <v>18.66447730339784</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>16.20222437772231</v>
+        <v>16.02335024832727</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.28701002136353</v>
+        <v>26.73015044678318</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.66822112160878</v>
+        <v>32.29508907889172</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1.110412373736153</v>
+        <v>0.2866359514018129</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>18.05095991859036</v>
+        <v>18.08241408868168</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>23.12407357292981</v>
+        <v>23.85949090406083</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>6.227386852818722</v>
+        <v>5.78493024578524</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>37.49261442843191</v>
+        <v>37.48410418242717</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>47.78135864514816</v>
+        <v>48.42211380471647</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>44.81905674052868</v>
+        <v>45.63434326588134</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>48.97277828668327</v>
+        <v>48.62656502680242</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>56.41214603431956</v>
+        <v>62.43626848063498</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>8.934420011137604</v>
+        <v>13.58580330828417</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>40.12359967453779</v>
+        <v>40.43291804462674</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>43.53493098262502</v>
+        <v>44.05637127165162</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>5.979844297260957</v>
+        <v>3.358093284834851</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>1.781346579354917</v>
+        <v>2.639212556462162</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>1.794597494001632</v>
+        <v>0.9709990715412076</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-1.676736011529098</v>
+        <v>-1.92356145917222</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-2.150253292569147</v>
+        <v>2.601874757044698</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-0.3888561397574648</v>
+        <v>-0.4468109833887226</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-0.9273057465880861</v>
+        <v>5.669277367441978</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>7.949529963316873</v>
+        <v>8.308567830542156</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>4.736758675370918</v>
+        <v>3.932721293954149</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>5.632196313574596</v>
+        <v>4.294760305816052</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.287533191064082</v>
+        <v>4.330719823461422</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>6.564453832140027</v>
+        <v>4.1043359253846</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>5.080889624832857</v>
+        <v>5.43429223569364</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>1.680385803576584</v>
+        <v>6.018187422263054</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>1.072525388271391</v>
+        <v>1.080936957797206</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>2.375118359241498</v>
+        <v>-1.013082969078638</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>3.639432547291499</v>
+        <v>0.4006834223957796</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>5.54139342171851</v>
+        <v>0.5051923700232628</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-2.896618618004801</v>
+        <v>-2.815729298322253</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-4.705819219277615</v>
+        <v>-4.317025139279146</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>3.311113069619026</v>
+        <v>-0.0896731317521926</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-3.341222358100683</v>
+        <v>-1.851666671233367</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.272857293673717</v>
+        <v>2.068309398114103</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>9.793384359842685</v>
+        <v>6.94651836994138</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>3.825520975719424</v>
+        <v>5.375100304244349</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.764986885477192</v>
+        <v>7.916070632810285</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>11.49357019419305</v>
+        <v>8.000258899769694</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-2.962144654494541</v>
+        <v>-3.992444218901799</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>3.333112176412712</v>
+        <v>3.690942745810315</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>3.823354712084516</v>
+        <v>2.764550911982116</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>17.71011068510404</v>
+        <v>17.61849454900716</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.06465583251308</v>
+        <v>20.97743512873019</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>24.5555677489997</v>
+        <v>23.00984283347021</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>3.66123709632825</v>
+        <v>3.930638391022264</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>10.4288126418355</v>
+        <v>12.13435230195909</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>15.40023209698431</v>
+        <v>15.0932379444839</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>7.918541578411023</v>
+        <v>8.518291723682271</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>27.83687621926641</v>
+        <v>29.71153229882439</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>33.6514568963584</v>
+        <v>32.65126521881189</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.18897544483038</v>
+        <v>32.07088216476441</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.88506776041696</v>
+        <v>33.44991567439426</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>37.36009507795874</v>
+        <v>41.58854698256035</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>11.35343501258461</v>
+        <v>20.87034528530304</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.60852490967589</v>
+        <v>28.99544045805722</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.38991161987512</v>
+        <v>30.86975516660421</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>22.02029790442707</v>
+        <v>22.03689147414958</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.32162095095742</v>
+        <v>32.18140491674025</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.84234708038223</v>
+        <v>37.05702532693141</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.625508956786504</v>
+        <v>5.987060860627796</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.79316308962302</v>
+        <v>23.91011172280952</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.53441904265252</v>
+        <v>29.23783537583948</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>14.69596251492461</v>
+        <v>14.49467624392632</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>45.44167186877094</v>
+        <v>45.95039952557801</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>49.20545013887776</v>
+        <v>49.0979038871862</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>43.42278705268052</v>
+        <v>43.08338419625441</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>49.62012377575205</v>
+        <v>50.14879444988468</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>53.1683949157126</v>
+        <v>53.76822889222845</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.71408859724882</v>
+        <v>31.44594446817558</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>44.24546833197356</v>
+        <v>57.1119976451128</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>54.52555866075702</v>
+        <v>58.37184929511491</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>14.0716522312694</v>
+        <v>12.10632855846938</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>25.62376472297256</v>
+        <v>24.18577069154865</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>32.81037501396796</v>
+        <v>29.68743247080244</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-2.570027718511248</v>
+        <v>-3.413779703589501</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>10.11353176224472</v>
+        <v>7.777748328257701</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>18.149408551956</v>
+        <v>15.34355176036159</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>3.006363005750416</v>
+        <v>3.205255815691864</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.97715472635759</v>
+        <v>26.17976470560302</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>41.42885493971004</v>
+        <v>36.96390206034795</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>30.31149341192339</v>
+        <v>29.89066769378342</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>40.45460585065106</v>
+        <v>36.65283321000385</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>45.80731886972313</v>
+        <v>45.11438073514118</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>12.68210507973711</v>
+        <v>15.54646455046528</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>39.6564224935257</v>
+        <v>42.88055858014168</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>45.1159656060612</v>
+        <v>46.78511384796534</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.66038906077097</v>
+        <v>23.67413044361134</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>37.11370741054061</v>
+        <v>36.94172555254992</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>45.18930803510572</v>
+        <v>46.44912361871998</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>3.031724680766498</v>
+        <v>3.067120043541134</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.84413312553781</v>
+        <v>22.30090154182112</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.13840982219175</v>
+        <v>29.22205612059919</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>12.43445952416014</v>
+        <v>13.11311777322277</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>48.57846884883288</v>
+        <v>47.96357438882003</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>61.89623345067592</v>
+        <v>60.18209274289025</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>60.55874616291141</v>
+        <v>65.36225735000282</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>68.07681449707803</v>
+        <v>70.32950613964226</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>72.1934280642202</v>
+        <v>74.61957433923617</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>20.97744060573544</v>
+        <v>28.35234640858966</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>58.42664909939972</v>
+        <v>57.00504228507705</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>65.98878205181975</v>
+        <v>66.84520889742379</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>13.68523337633513</v>
+        <v>13.49206650523671</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.20056445061845</v>
+        <v>33.40850930185913</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>40.95547356722972</v>
+        <v>39.74795110303604</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>5.602106848444308</v>
+        <v>5.5128520709371</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>33.76403589036794</v>
+        <v>38.22711309901861</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>40.10616960028763</v>
+        <v>40.8384550133157</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>12.8496720396917</v>
+        <v>11.93499158306136</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>57.01281951402336</v>
+        <v>58.32146132342638</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>61.19024793148654</v>
+        <v>63.10570732834813</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>58.68541901494597</v>
+        <v>62.24802969447267</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>64.55628781105221</v>
+        <v>70.15779725505112</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>66.5615866112968</v>
+        <v>66.93271910235565</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>13.37747015869525</v>
+        <v>12.27203299199181</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>41.24557506916281</v>
+        <v>42.08405411274984</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>52.23784265439147</v>
+        <v>50.25294033223533</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>9.604045885795294</v>
+        <v>9.665341671396945</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.55318902302313</v>
+        <v>31.60264590663136</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>37.94677725519976</v>
+        <v>36.15800603274138</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>0.8880499828000588</v>
+        <v>1.518621126626957</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.32653898104986</v>
+        <v>24.15647841999802</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.90495375467363</v>
+        <v>33.56692823302963</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>5.706393923386516</v>
+        <v>3.990964313946119</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>41.00416827546078</v>
+        <v>40.88205800513491</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>54.40685159054507</v>
+        <v>55.64200105512528</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>43.16376789405982</v>
+        <v>45.40878976821109</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>54.43338353381267</v>
+        <v>54.89542571200911</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>61.91122833587256</v>
+        <v>63.21803853632764</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>6.408139579318437</v>
+        <v>7.000910249335885</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>45.02916952686749</v>
+        <v>48.33118989996766</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>52.89507301320243</v>
+        <v>53.91211653778322</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>9.173641787026124</v>
+        <v>9.530069249494524</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>31.22895056544468</v>
+        <v>30.89471828550496</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>43.05832207530766</v>
+        <v>42.7468134460587</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>-1.34739614983334</v>
+        <v>-2.211351812045553</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>26.96168072452897</v>
+        <v>27.10969023224023</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.33281180095626</v>
+        <v>37.6363335953446</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>4.562719308663972</v>
+        <v>1.845713330744175</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>48.19315887552153</v>
+        <v>47.62424267308094</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>67.08737207436342</v>
+        <v>68.36279897514939</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>57.78505476421719</v>
+        <v>56.79946734743437</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>68.64976718449049</v>
+        <v>70.85628836752382</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>81.7857083337704</v>
+        <v>83.84269373611448</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>5.258949501782709</v>
+        <v>5.569805395602017</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>56.37581575380236</v>
+        <v>55.15736803256194</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>66.92609775618627</v>
+        <v>65.49295644320182</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>8.774000392137081</v>
+        <v>8.703475500455717</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.47010199174605</v>
+        <v>24.80805227242385</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.91754867805014</v>
+        <v>34.91321683689196</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>5.043084007047476</v>
+        <v>3.691526654666845</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>38.36333029912018</v>
+        <v>43.73722800659528</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>41.68740973234829</v>
+        <v>48.91991332826875</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>8.783718767913422</v>
+        <v>6.565188398252452</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>57.73222120867223</v>
+        <v>68.21320581187703</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>60.67591632802088</v>
+        <v>67.50718670455026</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>52.61487467192367</v>
+        <v>61.50484872069799</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>59.63830824794613</v>
+        <v>61.63400196190238</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>61.59543048162078</v>
+        <v>64.12603655397075</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>10.37771028096546</v>
+        <v>8.325822128892575</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.87158694104006</v>
+        <v>31.33294559010389</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>53.09974783224192</v>
+        <v>62.06457846152005</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>10.81341418745486</v>
+        <v>9.770432995858153</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.9360067442708</v>
+        <v>32.37619613800527</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.31200325584723</v>
+        <v>36.72999823945996</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>0.03290359683878563</v>
+        <v>-2.195870802875845</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>24.86887963693485</v>
+        <v>25.56370354479184</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.96660221239729</v>
+        <v>32.91228595654815</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1.564150582364981</v>
+        <v>-0.5079358276835109</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>44.56100769792899</v>
+        <v>47.55818271843021</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>56.65742508029754</v>
+        <v>55.35343343000592</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>45.08306809154726</v>
+        <v>44.62759922858038</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>59.78255249366428</v>
+        <v>56.41738206227386</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>66.78324432175131</v>
+        <v>62.5069897521497</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>7.892068522802994</v>
+        <v>6.027148477915258</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>51.14591133371462</v>
+        <v>48.64846775401566</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>57.82562862230183</v>
+        <v>56.7658461070253</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>11.13264232257708</v>
+        <v>10.41566034886486</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>35.36498474818648</v>
+        <v>34.37992019569123</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.56375168340684</v>
+        <v>42.73016713954492</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>0.526691979922397</v>
+        <v>-1.604904888035279</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>32.84091043937304</v>
+        <v>33.42515636383772</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>38.40500379421671</v>
+        <v>42.08247023662953</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>3.395199200271779</v>
+        <v>0.547919377974722</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>55.69696643719258</v>
+        <v>56.08622003099958</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>68.02604090429284</v>
+        <v>68.42381974379231</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>67.8019505321366</v>
+        <v>68.21590681766259</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>78.93010349523732</v>
+        <v>79.36186511009547</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>84.27894759303638</v>
+        <v>83.19977032405529</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>10.06907623460592</v>
+        <v>9.174417385405235</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>64.80261850164598</v>
+        <v>61.8570590197021</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>73.43308416523479</v>
+        <v>71.26574981460001</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>15.9639326761422</v>
+        <v>19.13997980250074</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.94525309155176</v>
+        <v>24.31575189573079</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>35.89897531402566</v>
+        <v>37.95706003142901</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>17.61707825171998</v>
+        <v>13.08170425218821</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>48.03354291505721</v>
+        <v>53.95135569515989</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>50.75843079599696</v>
+        <v>57.09174499745595</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>18.26112356519358</v>
+        <v>16.39463202526223</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>60.64236757359689</v>
+        <v>66.12206566108523</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>62.12451005915442</v>
+        <v>73.5885944792789</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>49.73552126824328</v>
+        <v>59.3555226254137</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>55.57456336747956</v>
+        <v>58.92229129130306</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>59.66644253664094</v>
+        <v>59.79906327986539</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>21.64417215889234</v>
+        <v>12.80905774216841</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>36.41507071751206</v>
+        <v>31.49026361676188</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>52.91273421388451</v>
+        <v>51.13227776008337</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>18.65891455514707</v>
+        <v>23.66958949446229</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>36.83659845840568</v>
+        <v>34.09861350549937</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>41.31900751768765</v>
+        <v>41.40745801410331</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.86844152582293</v>
+        <v>35.28749189263455</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>46.03742800129542</v>
+        <v>49.3046113490421</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>54.44809961509506</v>
+        <v>59.23293413346177</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>13.06494174336728</v>
+        <v>12.01936323482598</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>49.89140735242044</v>
+        <v>49.14481587067124</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>60.47224396741644</v>
+        <v>61.29652239986063</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.738729870208</v>
+        <v>47.05310564596596</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>60.11431747978376</v>
+        <v>55.78888092509516</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>68.54748502378368</v>
+        <v>60.00773951536468</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>20.60016858275042</v>
+        <v>25.16072918527896</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>52.37563979354172</v>
+        <v>52.81973958622825</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>58.15265491984461</v>
+        <v>57.64556536482553</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>19.7891458455286</v>
+        <v>23.47613020444282</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>38.52604908183993</v>
+        <v>38.36476479351833</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>42.95713598183082</v>
+        <v>43.6601632044413</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>27.94801915249366</v>
+        <v>36.05759382024986</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>52.73265819291465</v>
+        <v>57.24668720158621</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>57.50589032740261</v>
+        <v>63.05320664959737</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>17.29584851864478</v>
+        <v>14.85984048949734</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>61.51227970887579</v>
+        <v>63.00666306540534</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>71.979680487297</v>
+        <v>70.4895438674171</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>71.59219940938684</v>
+        <v>76.44423531850586</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>79.03119151931165</v>
+        <v>79.49871300206512</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>86.75901146217478</v>
+        <v>83.10063532295531</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.12505893002345</v>
+        <v>26.66850429916217</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>65.82338743592173</v>
+        <v>65.76115392102196</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>75.21920278882503</v>
+        <v>75.20726864048731</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>8.311156375480628</v>
+        <v>8.248846671002021</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.80549074679579</v>
+        <v>27.60423886467111</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.27749419753604</v>
+        <v>35.75136964341526</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>0.9833174255331478</v>
+        <v>3.370778887533078</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.78783721165954</v>
+        <v>27.66072103885717</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.76864855187688</v>
+        <v>35.30886194108674</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>9.073935854184047</v>
+        <v>8.639673571648572</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>53.50521581734859</v>
+        <v>53.8927413129751</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>56.75118306419665</v>
+        <v>58.24267210456617</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>55.27550207669217</v>
+        <v>59.80744814691074</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>61.43842903769681</v>
+        <v>62.42517148218497</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>62.46362255702272</v>
+        <v>62.61509307370402</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>6.448740971375077</v>
+        <v>6.559752482577842</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>36.66950144667223</v>
+        <v>43.8733042382408</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>45.13956489061179</v>
+        <v>45.95778565728939</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>9.81339325998405</v>
+        <v>10.99605912340257</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.65491623606292</v>
+        <v>35.89266046668207</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>37.04262715701351</v>
+        <v>36.79188357810479</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>0.9492378150546585</v>
+        <v>4.272305284812909</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>24.52997550453852</v>
+        <v>30.89956301885265</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>32.12298515411509</v>
+        <v>34.61591730043338</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>3.638841240255019</v>
+        <v>5.441042180678554</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.24854828049079</v>
+        <v>46.15827648465734</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>52.79852539835852</v>
+        <v>56.03245756520373</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>41.92405943085072</v>
+        <v>46.5945771850114</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>55.41763809430326</v>
+        <v>55.30042781754526</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>60.73844718836458</v>
+        <v>61.35061892234052</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>3.83714039136942</v>
+        <v>7.63933448999245</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>43.48924428892288</v>
+        <v>44.93767393045184</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>51.48309444123672</v>
+        <v>54.43298871014376</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>10.83423278319179</v>
+        <v>10.24435171987364</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>32.30181720387215</v>
+        <v>32.76422755193389</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>42.80932515910734</v>
+        <v>42.42250102402962</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>0.4351621147124725</v>
+        <v>0.49640741792971</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.40321450313424</v>
+        <v>29.31506839589335</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.41715459419041</v>
+        <v>37.74676081708013</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>4.160529748606685</v>
+        <v>3.495390924877007</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>48.15717345803367</v>
+        <v>48.6638832195091</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>65.36948733668129</v>
+        <v>67.29341739546294</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>59.66558706053743</v>
+        <v>61.04671011559638</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>73.47273819293136</v>
+        <v>73.14575180315521</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>82.94417518982812</v>
+        <v>82.50032344710698</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>6.011224747278689</v>
+        <v>5.780142516805618</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>58.29672635186078</v>
+        <v>60.29128628333249</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>70.15659212259052</v>
+        <v>67.98320134060825</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>11.64508802755032</v>
+        <v>10.39726664328999</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>10.611836107878</v>
+        <v>12.54970390663526</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>15.48120873306857</v>
+        <v>16.4289146947678</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1.780647927585818</v>
+        <v>1.391101930361128</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>11.69954734313361</v>
+        <v>14.95427829426772</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>13.86928838496783</v>
+        <v>16.65020564382619</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>8.573789786280749</v>
+        <v>8.948487300417074</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>26.00405401962112</v>
+        <v>25.01104685416151</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.29255503612443</v>
+        <v>28.54889487471817</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.80987714229728</v>
+        <v>24.28048770179596</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.54954177845874</v>
+        <v>27.73926572333657</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.34690255295625</v>
+        <v>30.39975418150738</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>10.56166157635193</v>
+        <v>8.341708107842123</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>14.2009269784528</v>
+        <v>19.25383697049332</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>20.69441386863998</v>
+        <v>20.89730589584475</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>9.384707655192663</v>
+        <v>8.33073757895167</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>19.54855135556489</v>
+        <v>20.76466925546965</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.77187571941047</v>
+        <v>31.47548529228173</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>0.4339322835675645</v>
+        <v>0.3406509455354083</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>10.57591487719711</v>
+        <v>12.85447518715348</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.053775657591</v>
+        <v>26.72146648829321</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>3.805491619411388</v>
+        <v>3.990747217342889</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>23.53143932792035</v>
+        <v>23.96672197703094</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>44.44959620157579</v>
+        <v>46.41714829178352</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.56910573445232</v>
+        <v>29.10004521085975</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>38.77381416733915</v>
+        <v>40.5536568096703</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>50.74543783925917</v>
+        <v>54.37877198881714</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>5.496127382395393</v>
+        <v>3.567164567147984</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.84700280063817</v>
+        <v>35.37639099512464</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>43.8049467291075</v>
+        <v>47.01337763830514</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>15.86084289815058</v>
+        <v>14.30630371252175</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.42065782254082</v>
+        <v>28.28371133692067</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>40.98126238554317</v>
+        <v>41.11079284169979</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>2.602158255011538</v>
+        <v>1.381859279723258</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>20.24082813958105</v>
+        <v>20.53068360785685</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.19239247311513</v>
+        <v>35.25311148144445</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>8.136041716212301</v>
+        <v>7.22695855366139</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>37.73409019270454</v>
+        <v>37.60927776388296</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>57.7609855279285</v>
+        <v>59.18415909265629</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>47.30654241162665</v>
+        <v>48.14894348077145</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>55.81488935173525</v>
+        <v>56.41104437481631</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>67.95194495692181</v>
+        <v>67.90313965037281</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>7.675069445922531</v>
+        <v>5.239877812944165</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>45.07406206687847</v>
+        <v>39.98679227649669</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>62.15745277374555</v>
+        <v>62.14042591970814</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>12.50603783796671</v>
+        <v>17.62350026376004</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>22.51314405929981</v>
+        <v>22.69720172768413</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.4978194420013</v>
+        <v>28.13329343344249</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>2.697564862578737</v>
+        <v>1.451295898437593</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>27.64476019405591</v>
+        <v>32.31990515228998</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>31.13049057462484</v>
+        <v>34.13613047321536</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>10.31792488616128</v>
+        <v>12.91556875791086</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>46.36587290472922</v>
+        <v>46.33439988538692</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>48.63957188810629</v>
+        <v>47.89509149333414</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>36.14661330638116</v>
+        <v>34.75276115369878</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>42.59885215030232</v>
+        <v>40.27321598667947</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>47.62949228528612</v>
+        <v>45.83887026317288</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>15.00901041849817</v>
+        <v>11.92860187215062</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.58072223541383</v>
+        <v>38.29997718102805</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>44.25837074252873</v>
+        <v>42.22791030940863</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>9.083230565696114</v>
+        <v>10.18163208850056</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>24.17194392281407</v>
+        <v>24.76200994119323</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>32.93170543963843</v>
+        <v>36.95642770667259</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>4.01896044381488</v>
+        <v>3.533053586941968</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>20.14682117409752</v>
+        <v>19.90395843535352</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>33.64072314207664</v>
+        <v>40.68503257982481</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>1.106490834489723</v>
+        <v>3.118044347841213</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>32.44094974884048</v>
+        <v>32.87704667257055</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>48.01470077588901</v>
+        <v>52.01092322835576</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.73193491870983</v>
+        <v>29.58983019496188</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>44.50352876117707</v>
+        <v>41.55052397918531</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>56.62926782356531</v>
+        <v>59.41731117645248</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>6.693377469556484</v>
+        <v>7.112713943022264</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>38.11756129671917</v>
+        <v>40.62276296376501</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>46.19401744626703</v>
+        <v>47.74923791677764</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>7.922436920069078</v>
+        <v>14.56791148338198</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>23.62248502004038</v>
+        <v>28.71883249318249</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>31.74237864533312</v>
+        <v>37.42463968738926</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>2.169495996900345</v>
+        <v>2.786489970741485</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>23.17954233432719</v>
+        <v>24.19759216158598</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.14019862639929</v>
+        <v>38.19553364524798</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>0.9855546861186184</v>
+        <v>7.312775678160769</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>39.95562131648847</v>
+        <v>43.00197884447119</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>54.7374535379605</v>
+        <v>55.85725983055011</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>50.12033211391508</v>
+        <v>52.7692207196053</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>57.33374101556323</v>
+        <v>58.4770858364441</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>68.39094183422692</v>
+        <v>70.92467599276434</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>7.097005672323476</v>
+        <v>4.984595620597204</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>45.02471817672863</v>
+        <v>37.8501188284867</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>57.51862818996695</v>
+        <v>56.95502027701462</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>13.34087543873565</v>
+        <v>16.04247748958852</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>27.99662971470906</v>
+        <v>28.9259529295533</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>37.16242325617939</v>
+        <v>36.5761601487086</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>5.905901295060339</v>
+        <v>4.080986075816568</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>41.77027795968112</v>
+        <v>44.1295003624501</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>47.31268714578263</v>
+        <v>47.35256457110715</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>14.794354625399</v>
+        <v>13.17727383182571</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>62.30795159746563</v>
+        <v>67.24603949584122</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>66.8533858028799</v>
+        <v>67.74451038959168</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>62.24808023940513</v>
+        <v>59.56352827823746</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>63.68782361748317</v>
+        <v>58.40423506642986</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>68.9298231304665</v>
+        <v>62.07946973511539</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>13.76765330411511</v>
+        <v>16.15136184331899</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>28.61047373796124</v>
+        <v>22.09035668584547</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>55.66882775620306</v>
+        <v>66.43737416280555</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>19.64945226063545</v>
+        <v>22.0742370379707</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>37.26866023075979</v>
+        <v>37.92120265394179</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>39.72890666224718</v>
+        <v>40.16008689546177</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>5.903133706687642</v>
+        <v>5.317376071977343</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>30.32413754518779</v>
+        <v>30.15744707808301</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>37.63520164938544</v>
+        <v>36.35553131870341</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>11.36502028343645</v>
+        <v>9.454874676780928</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>51.20316673810758</v>
+        <v>49.59106583924277</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>59.66816658765901</v>
+        <v>58.58016747361898</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>51.86049672049806</v>
+        <v>49.98031941523092</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>59.72863678416082</v>
+        <v>57.35185645766457</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>64.6224106482384</v>
+        <v>63.41561886693312</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>20.02537354582993</v>
+        <v>20.50305584477006</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>50.88591459835882</v>
+        <v>52.73357550511123</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>57.18871656305237</v>
+        <v>57.5639602942368</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>18.82821613703921</v>
+        <v>23.38418418823193</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>38.89610358485041</v>
+        <v>39.41480417721525</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>43.65001740440972</v>
+        <v>44.44975592009263</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>4.19758656482125</v>
+        <v>5.015415257568879</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>34.76786694809188</v>
+        <v>34.27922141230601</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>40.44418774990891</v>
+        <v>39.89703003066325</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>10.61486708131609</v>
+        <v>11.57178208137248</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>60.01946245352879</v>
+        <v>59.90865825647573</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>70.47699994313044</v>
+        <v>70.82176346127898</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>68.30227725096086</v>
+        <v>71.15650814284218</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>74.69304187400999</v>
+        <v>74.63150595329337</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>80.14971009581583</v>
+        <v>81.00445309228418</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>15.55634219436986</v>
+        <v>17.72238321387681</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>58.3067882736241</v>
+        <v>60.45315032883224</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>68.37551856739817</v>
+        <v>70.68217939371867</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>7.723797775642112</v>
+        <v>7.499147161414427</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>25.37452665148139</v>
+        <v>25.64180164476603</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>32.98025565841739</v>
+        <v>31.84902556049614</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>2.343503976971675</v>
+        <v>2.642022701129001</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>29.72382030740313</v>
+        <v>31.24997957439303</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.97916034589005</v>
+        <v>32.90181723549989</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>8.637050210093692</v>
+        <v>8.063788955551651</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>51.73701953292871</v>
+        <v>50.64180761766562</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>55.13739739751677</v>
+        <v>54.84134543699837</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>56.75632638181592</v>
+        <v>55.26427404235069</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>63.35694834511162</v>
+        <v>60.78369878486002</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>61.18384427922974</v>
+        <v>59.97560550962309</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>5.772665451601245</v>
+        <v>6.106045163260944</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.75022517424259</v>
+        <v>38.00911118419902</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>43.18656279236974</v>
+        <v>39.78171004466948</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>11.70675008723551</v>
+        <v>8.732351772849242</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>33.43689393791902</v>
+        <v>32.43727502665202</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>38.90310501376381</v>
+        <v>33.60539558125295</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>4.011997838615311</v>
+        <v>3.018525654422888</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>27.25936429074797</v>
+        <v>27.06140631819497</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>36.2909081035601</v>
+        <v>33.25808061928085</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>7.615265915178242</v>
+        <v>8.172522067132629</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>44.99656482931221</v>
+        <v>45.07737967442826</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>57.86945254980787</v>
+        <v>60.02642351466691</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>47.4471940196548</v>
+        <v>48.27229327048435</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>60.4419662947598</v>
+        <v>58.62075870154943</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>65.64690817954276</v>
+        <v>64.97642296504034</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>7.125515434928587</v>
+        <v>7.625679062070823</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>49.53388096631358</v>
+        <v>54.53234512649374</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.81792250407822</v>
+        <v>55.18939050612136</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>12.36682530807947</v>
+        <v>11.63438235185251</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>31.93415955329875</v>
+        <v>31.53019957751237</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>41.58965929671651</v>
+        <v>41.05065208503653</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>0.6407006832316142</v>
+        <v>1.365830398878717</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>26.20898971128727</v>
+        <v>26.51844422651608</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>35.29797629808429</v>
+        <v>37.21006897912623</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>4.507635604044914</v>
+        <v>6.498977355769618</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>45.78693794989179</v>
+        <v>44.42451593036298</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>63.02190130475852</v>
+        <v>66.49922612988576</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>60.43339012059048</v>
+        <v>60.77972549503814</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>69.87480977008602</v>
+        <v>70.73686875017094</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>80.49729511835852</v>
+        <v>81.17652031047453</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>5.125419443934398</v>
+        <v>5.691335235799677</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>53.69035311899211</v>
+        <v>51.65455269539644</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>65.4344529723196</v>
+        <v>65.11281748540159</v>
       </c>
     </row>
   </sheetData>
